--- a/templates/output/template4.xlsx
+++ b/templates/output/template4.xlsx
@@ -12,22 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13896" windowHeight="5340"/>
   </bookViews>
   <sheets>
-    <sheet name="Section III (3600m)" sheetId="20" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="21" r:id="rId2"/>
+    <sheet name="Section 1" sheetId="20" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Section III (3600m)'!$A$1:$AE$55</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Section III (3600m)'!$2:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Section 1'!$A$1:$AE$55</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Section 1'!$2:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
-  <si>
-    <t>TENSIONER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Span Tension</t>
   </si>
@@ -44,13 +40,7 @@
     <t>Type Tower</t>
   </si>
   <si>
-    <t>meter</t>
-  </si>
-  <si>
     <t>Span Kumulatif</t>
-  </si>
-  <si>
-    <t>PANJANG :</t>
   </si>
   <si>
     <t>Jumlah Haspel</t>
@@ -62,84 +52,6 @@
     <t>Toleransi Kumulatif</t>
   </si>
   <si>
-    <t>PULLER</t>
-  </si>
-  <si>
-    <t>GANTRY</t>
-  </si>
-  <si>
-    <t>DDR+0</t>
-  </si>
-  <si>
-    <t>BB+6</t>
-  </si>
-  <si>
-    <t>BB+3</t>
-  </si>
-  <si>
-    <t>AA+3</t>
-  </si>
-  <si>
-    <t>CC+3</t>
-  </si>
-  <si>
-    <t>AA+6</t>
-  </si>
-  <si>
-    <t>CC+0</t>
-  </si>
-  <si>
-    <t>AA+9</t>
-  </si>
-  <si>
-    <t>CC+6</t>
-  </si>
-  <si>
-    <t>CIBABAT II</t>
-  </si>
-  <si>
-    <t>DDR+3</t>
-  </si>
-  <si>
-    <t>DD+3</t>
-  </si>
-  <si>
-    <t>CIBABAT I</t>
-  </si>
-  <si>
-    <t>Toleransi (3%)</t>
-  </si>
-  <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>Bandung , 20  Nopember  2013</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Jumlah</t>
-  </si>
-  <si>
-    <t>Midspan Joint  (82.86m)</t>
-  </si>
-  <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
-    <t>Drum Haspel</t>
-  </si>
-  <si>
-    <t>@3,600.00m</t>
-  </si>
-  <si>
-    <t>18 x 3,600.00m = 64,800.00m</t>
-  </si>
-  <si>
-    <t>MATERIAL SCHEDULE</t>
-  </si>
-  <si>
     <t>PT. PLN (PERSERO)</t>
   </si>
   <si>
@@ -147,9 +59,6 @@
   </si>
   <si>
     <t>PEMBANGUNAN TRANSMISI 150kV PADALARANG-CIBABAT</t>
-  </si>
-  <si>
-    <t>PROYEK INDUK PEMBANGUNAN JBT II</t>
   </si>
   <si>
     <t>UNIT PELAKSANA PROYEK JJBT 1</t>
@@ -170,26 +79,32 @@
     <t>PT. XYZ</t>
   </si>
   <si>
-    <t>DRAWING NO :</t>
-  </si>
-  <si>
-    <t>REVISION NO : 1</t>
-  </si>
-  <si>
-    <t>DATE :19 AGUSTUS 2011</t>
-  </si>
-  <si>
     <t>UNIT INDUK PEMBANGUNAN JBT II</t>
   </si>
   <si>
     <t>DRUM SCHEDULE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>REVISION NO</t>
+  </si>
+  <si>
+    <t>DRAWING NO</t>
+  </si>
+  <si>
+    <t>Sagging</t>
+  </si>
+  <si>
+    <t>START</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
@@ -197,6 +112,8 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;???_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="\+0;\-0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -288,12 +205,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <u/>
       <sz val="11"/>
@@ -366,8 +277,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,12 +294,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -628,86 +539,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,17 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -756,8 +576,164 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -769,10 +745,10 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -780,13 +756,13 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,122 +774,19 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1054,7 +927,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,14 +975,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,17 +987,14 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,7 +1003,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1148,8 +1015,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,8 +1024,171 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,16 +1196,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,302 +1280,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1630,166 +1444,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19783" name="Freeform 76"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1310640" y="1729740"/>
-          <a:ext cx="1051560" cy="685800"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 2147483647 w 96"/>
-            <a:gd name="T1" fmla="*/ 0 h 81"/>
-            <a:gd name="T2" fmla="*/ 2147483647 w 96"/>
-            <a:gd name="T3" fmla="*/ 2147483647 h 81"/>
-            <a:gd name="T4" fmla="*/ 2147483647 w 96"/>
-            <a:gd name="T5" fmla="*/ 2147483647 h 81"/>
-            <a:gd name="T6" fmla="*/ 2147483647 w 96"/>
-            <a:gd name="T7" fmla="*/ 2147483647 h 81"/>
-            <a:gd name="T8" fmla="*/ 0 w 96"/>
-            <a:gd name="T9" fmla="*/ 2147483647 h 81"/>
-            <a:gd name="T10" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T12" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T13" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T14" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T15" fmla="*/ 0 w 96"/>
-            <a:gd name="T16" fmla="*/ 0 h 81"/>
-            <a:gd name="T17" fmla="*/ 96 w 96"/>
-            <a:gd name="T18" fmla="*/ 81 h 81"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="T10">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="T11">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-            <a:cxn ang="T12">
-              <a:pos x="T4" y="T5"/>
-            </a:cxn>
-            <a:cxn ang="T13">
-              <a:pos x="T6" y="T7"/>
-            </a:cxn>
-            <a:cxn ang="T14">
-              <a:pos x="T8" y="T9"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T15" t="T16" r="T17" b="T18"/>
-          <a:pathLst>
-            <a:path w="96" h="81">
-              <a:moveTo>
-                <a:pt x="96" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="94" y="5"/>
-                <a:pt x="89" y="20"/>
-                <a:pt x="84" y="28"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="79" y="36"/>
-                <a:pt x="73" y="44"/>
-                <a:pt x="65" y="51"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="57" y="58"/>
-                <a:pt x="47" y="67"/>
-                <a:pt x="36" y="72"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="25" y="77"/>
-                <a:pt x="7" y="79"/>
-                <a:pt x="0" y="81"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19784" name="Rectangle 77"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1203960" y="2423160"/>
-          <a:ext cx="144780" cy="129540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -3434,166 +3088,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19798" name="Freeform 85"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="6023405">
-          <a:off x="13243560" y="4671060"/>
-          <a:ext cx="480060" cy="1287780"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="T0" fmla="*/ 2147483647 w 96"/>
-            <a:gd name="T1" fmla="*/ 0 h 81"/>
-            <a:gd name="T2" fmla="*/ 2147483647 w 96"/>
-            <a:gd name="T3" fmla="*/ 2147483647 h 81"/>
-            <a:gd name="T4" fmla="*/ 2147483647 w 96"/>
-            <a:gd name="T5" fmla="*/ 2147483647 h 81"/>
-            <a:gd name="T6" fmla="*/ 2147483647 w 96"/>
-            <a:gd name="T7" fmla="*/ 2147483647 h 81"/>
-            <a:gd name="T8" fmla="*/ 0 w 96"/>
-            <a:gd name="T9" fmla="*/ 2147483647 h 81"/>
-            <a:gd name="T10" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T12" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T13" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T14" fmla="*/ 0 60000 65536"/>
-            <a:gd name="T15" fmla="*/ 0 w 96"/>
-            <a:gd name="T16" fmla="*/ 0 h 81"/>
-            <a:gd name="T17" fmla="*/ 96 w 96"/>
-            <a:gd name="T18" fmla="*/ 81 h 81"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="T10">
-              <a:pos x="T0" y="T1"/>
-            </a:cxn>
-            <a:cxn ang="T11">
-              <a:pos x="T2" y="T3"/>
-            </a:cxn>
-            <a:cxn ang="T12">
-              <a:pos x="T4" y="T5"/>
-            </a:cxn>
-            <a:cxn ang="T13">
-              <a:pos x="T6" y="T7"/>
-            </a:cxn>
-            <a:cxn ang="T14">
-              <a:pos x="T8" y="T9"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="T15" t="T16" r="T17" b="T18"/>
-          <a:pathLst>
-            <a:path w="96" h="81">
-              <a:moveTo>
-                <a:pt x="96" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="94" y="5"/>
-                <a:pt x="89" y="20"/>
-                <a:pt x="84" y="28"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="79" y="36"/>
-                <a:pt x="73" y="44"/>
-                <a:pt x="65" y="51"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="57" y="58"/>
-                <a:pt x="47" y="67"/>
-                <a:pt x="36" y="72"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="25" y="77"/>
-                <a:pt x="7" y="79"/>
-                <a:pt x="0" y="81"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19799" name="Rectangle 86"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="14058900" y="5646420"/>
-          <a:ext cx="137160" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
@@ -3871,114 +3365,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>279075</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>178597</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1050159" cy="283604"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextBox 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12137700" y="9351172"/>
-          <a:ext cx="1050159" cy="283604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1" u="sng">
-              <a:latin typeface="Arial Narrow" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>DANAN HURI</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>289085</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>154788</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1999843" cy="283604"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11671460" y="8327238"/>
-          <a:ext cx="1999843" cy="283604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1" u="none">
-              <a:latin typeface="Arial Narrow" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>KSO . HASTA  PRAJATAMA</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -5214,12 +4600,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156234</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1143000" cy="1571625"/>
+    <xdr:ext cx="1037112" cy="1426029"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="36" name="Picture 35"/>
@@ -5235,8 +4621,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="297180"/>
-          <a:ext cx="1143000" cy="1571625"/>
+          <a:off x="341291" y="304799"/>
+          <a:ext cx="1037112" cy="1426029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5245,44 +4631,143 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="962025" cy="1322784"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2367915" y="297181"/>
-          <a:ext cx="962025" cy="1322784"/>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Arc 75"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="21492226" flipV="1">
+          <a:off x="11919857" y="5643154"/>
+          <a:ext cx="951412" cy="87086"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:custGeom>
           <a:avLst/>
-        </a:prstGeom>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 43200"/>
+            <a:gd name="T1" fmla="*/ 2147483647 h 25370"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 43200"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 25370"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 43200"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 25370"/>
+            <a:gd name="T6" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T7" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T8" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 0 w 43200"/>
+            <a:gd name="T10" fmla="*/ 0 h 25370"/>
+            <a:gd name="T11" fmla="*/ 43200 w 43200"/>
+            <a:gd name="T12" fmla="*/ 25370 h 25370"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T6">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T7">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T8">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T9" t="T10" r="T11" b="T12"/>
+          <a:pathLst>
+            <a:path w="43200" h="25370" fill="none" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="331" y="25369"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="110" y="24125"/>
+                <a:pt x="0" y="22863"/>
+                <a:pt x="0" y="21600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="9670"/>
+                <a:pt x="9670" y="0"/>
+                <a:pt x="21600" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="33529" y="0"/>
+                <a:pt x="43200" y="9670"/>
+                <a:pt x="43200" y="21600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="43200" y="21814"/>
+                <a:pt x="43196" y="22028"/>
+                <a:pt x="43190" y="22242"/>
+              </a:cubicBezTo>
+            </a:path>
+            <a:path w="43200" h="25370" stroke="0" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="331" y="25369"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="110" y="24125"/>
+                <a:pt x="0" y="22863"/>
+                <a:pt x="0" y="21600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="9670"/>
+                <a:pt x="9670" y="0"/>
+                <a:pt x="21600" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="33529" y="0"/>
+                <a:pt x="43200" y="9670"/>
+                <a:pt x="43200" y="21600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="43200" y="21814"/>
+                <a:pt x="43196" y="22028"/>
+                <a:pt x="43190" y="22242"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="21600" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="331" y="25369"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+    </xdr:sp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5612,8 +5097,8 @@
   </sheetPr>
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5622,318 +5107,313 @@
     <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="30" width="7" style="1" customWidth="1"/>
+    <col min="5" max="29" width="7" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="2.6640625" style="1" customWidth="1"/>
     <col min="32" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="185" t="s">
-        <v>52</v>
+      <c r="A1" s="108" t="s">
+        <v>19</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="186"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="86"/>
     </row>
     <row r="2" spans="1:31" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="201" t="s">
-        <v>38</v>
+      <c r="A2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="114" t="s">
+        <v>9</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="153" t="s">
-        <v>39</v>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="126" t="s">
+        <v>10</v>
       </c>
-      <c r="V2" s="153"/>
-      <c r="W2" s="187" t="s">
-        <v>40</v>
+      <c r="V2" s="126"/>
+      <c r="W2" s="87" t="s">
+        <v>11</v>
       </c>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
       <c r="AC2"/>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="154"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157" t="s">
-        <v>51</v>
+      <c r="A3" s="137"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="117" t="s">
+        <v>18</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="158"/>
-      <c r="U3" s="159"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="188"/>
-      <c r="Y3" s="188"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="101"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="186"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="154"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="157" t="s">
-        <v>42</v>
+      <c r="A4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="120" t="s">
+        <v>12</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="189" t="s">
-        <v>43</v>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="126" t="s">
+        <v>13</v>
       </c>
-      <c r="V4" s="153"/>
-      <c r="W4" s="187" t="s">
-        <v>44</v>
+      <c r="V4" s="126"/>
+      <c r="W4" s="87" t="s">
+        <v>14</v>
       </c>
-      <c r="X4" s="187"/>
-      <c r="Y4" s="187"/>
-      <c r="Z4" s="187"/>
-      <c r="AA4" s="187"/>
-      <c r="AB4" s="187"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
       <c r="AC4"/>
-      <c r="AD4" s="186"/>
-      <c r="AE4" s="186"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="154"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5" s="186"/>
-      <c r="U5" s="189" t="s">
-        <v>45</v>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="126" t="s">
+        <v>15</v>
       </c>
-      <c r="V5" s="153"/>
-      <c r="W5" s="164" t="s">
-        <v>46</v>
+      <c r="V5" s="126"/>
+      <c r="W5" s="83" t="s">
+        <v>16</v>
       </c>
-      <c r="X5" s="164" t="s">
-        <v>46</v>
+      <c r="X5" s="83" t="s">
+        <v>16</v>
       </c>
-      <c r="Y5" s="165"/>
+      <c r="Y5" s="84"/>
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5"/>
-      <c r="AD5" s="186"/>
-      <c r="AE5" s="186"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
     </row>
-    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="154"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="193" t="s">
-        <v>47</v>
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="117" t="s">
+        <v>17</v>
       </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6"/>
-      <c r="AD6" s="186"/>
-      <c r="AE6" s="186"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="168"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="190" t="s">
-        <v>48</v>
+      <c r="A7" s="97"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="121"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="109" t="s">
+        <v>22</v>
       </c>
-      <c r="V7" s="171"/>
+      <c r="V7" s="110"/>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7" s="172" t="s">
-        <v>49</v>
+      <c r="Z7" s="111" t="s">
+        <v>21</v>
       </c>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="174" t="s">
-        <v>50</v>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="89" t="s">
+        <v>20</v>
       </c>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="186"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="86"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
-      <c r="L8" s="199"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="199"/>
-      <c r="Q8" s="199"/>
-      <c r="R8" s="199"/>
-      <c r="S8" s="199"/>
-      <c r="T8" s="200"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="171"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="110"/>
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8" s="178"/>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="186"/>
-      <c r="AE8" s="186"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="86"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="57" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="57"/>
       <c r="D9" s="57"/>
-      <c r="E9" s="129">
-        <v>4584.34</v>
-      </c>
-      <c r="F9" s="129"/>
-      <c r="G9" s="43" t="s">
-        <v>6</v>
-      </c>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -6060,11 +5540,9 @@
     </row>
     <row r="13" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
@@ -6074,18 +5552,18 @@
       <c r="K13" s="27"/>
       <c r="L13" s="23"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="122"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="123"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="133"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="134"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="134"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="25"/>
       <c r="AB13" s="23"/>
@@ -6162,613 +5640,334 @@
     <row r="16" spans="1:31" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55"/>
       <c r="B16" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
-      <c r="E16" s="118">
+      <c r="E16" s="142">
         <v>1</v>
       </c>
-      <c r="F16" s="119"/>
-      <c r="G16" s="118">
-        <v>2</v>
-      </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="118">
-        <v>3</v>
-      </c>
-      <c r="J16" s="119"/>
-      <c r="K16" s="118">
-        <v>4</v>
-      </c>
-      <c r="L16" s="119"/>
-      <c r="M16" s="118">
-        <v>5</v>
-      </c>
-      <c r="N16" s="119"/>
-      <c r="O16" s="118">
-        <v>6</v>
-      </c>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="118">
-        <v>7</v>
-      </c>
-      <c r="R16" s="119"/>
-      <c r="S16" s="118">
-        <v>8</v>
-      </c>
-      <c r="T16" s="119"/>
-      <c r="U16" s="118">
-        <v>9</v>
-      </c>
-      <c r="V16" s="119"/>
-      <c r="W16" s="118">
-        <v>10</v>
-      </c>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="118">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="118">
-        <v>12</v>
-      </c>
-      <c r="AB16" s="119"/>
-      <c r="AC16" s="118">
-        <v>13</v>
-      </c>
-      <c r="AD16" s="128"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="143"/>
       <c r="AE16" s="63"/>
     </row>
     <row r="17" spans="1:34" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
       <c r="B17" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="114" t="s">
-        <v>23</v>
+      <c r="E17" s="144" t="s">
+        <v>24</v>
       </c>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116">
-        <v>1</v>
-      </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="117"/>
-      <c r="K17" s="116">
-        <v>2</v>
-      </c>
-      <c r="L17" s="117"/>
-      <c r="M17" s="116">
-        <v>3</v>
-      </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="116">
-        <v>4</v>
-      </c>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="116">
-        <v>5</v>
-      </c>
-      <c r="R17" s="117"/>
-      <c r="S17" s="116">
-        <v>6</v>
-      </c>
-      <c r="T17" s="117"/>
-      <c r="U17" s="116">
-        <v>7</v>
-      </c>
-      <c r="V17" s="117"/>
-      <c r="W17" s="116">
-        <v>8</v>
-      </c>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="116">
-        <v>9</v>
-      </c>
-      <c r="Z17" s="117"/>
-      <c r="AA17" s="116">
-        <v>10</v>
-      </c>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="116">
-        <v>11</v>
-      </c>
-      <c r="AD17" s="117"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="146"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="146"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="146"/>
+      <c r="X17" s="147"/>
+      <c r="Y17" s="146"/>
+      <c r="Z17" s="147"/>
+      <c r="AA17" s="146"/>
+      <c r="AB17" s="147"/>
+      <c r="AC17" s="146"/>
+      <c r="AD17" s="147"/>
       <c r="AE17" s="63"/>
-      <c r="AG17" s="81">
-        <f>J19+L19+N19+P19</f>
-        <v>875.63</v>
-      </c>
+      <c r="AG17" s="79"/>
     </row>
     <row r="18" spans="1:34" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
       <c r="B18" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="114" t="s">
+      <c r="E18" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="115"/>
-      <c r="I18" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="115"/>
-      <c r="K18" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="115"/>
-      <c r="M18" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="115"/>
-      <c r="O18" s="114" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" s="115"/>
-      <c r="S18" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" s="115"/>
-      <c r="U18" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="V18" s="115"/>
-      <c r="W18" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="115"/>
-      <c r="Y18" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z18" s="115"/>
-      <c r="AA18" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB18" s="115"/>
-      <c r="AC18" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD18" s="115"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="99"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="99"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="100"/>
       <c r="AE18" s="63"/>
     </row>
     <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
       <c r="B19" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
       <c r="E19" s="54"/>
-      <c r="F19" s="101">
-        <v>26.2</v>
-      </c>
-      <c r="G19" s="113"/>
-      <c r="H19" s="101">
-        <v>50.81</v>
-      </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="101">
-        <v>239.1</v>
-      </c>
-      <c r="K19" s="113"/>
-      <c r="L19" s="101">
-        <v>258.88</v>
-      </c>
-      <c r="M19" s="113"/>
-      <c r="N19" s="105">
-        <v>256.81</v>
-      </c>
-      <c r="O19" s="106"/>
-      <c r="P19" s="101">
-        <v>120.84</v>
-      </c>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="101">
-        <v>98</v>
-      </c>
-      <c r="S19" s="113"/>
-      <c r="T19" s="101">
-        <v>152.28</v>
-      </c>
-      <c r="U19" s="113"/>
-      <c r="V19" s="103">
-        <v>348.39</v>
-      </c>
-      <c r="W19" s="104"/>
-      <c r="X19" s="126">
-        <v>305.10000000000002</v>
-      </c>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="126">
-        <v>217.68</v>
-      </c>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="126">
-        <v>260.94</v>
-      </c>
-      <c r="AC19" s="127"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="157"/>
+      <c r="Y19" s="158"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="158"/>
+      <c r="AB19" s="157"/>
+      <c r="AC19" s="158"/>
       <c r="AD19" s="54"/>
       <c r="AE19" s="63"/>
-      <c r="AG19" s="87">
-        <f>SUM(F19:AC19)</f>
-        <v>2335.0299999999997</v>
-      </c>
-      <c r="AH19" s="88"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="150"/>
     </row>
     <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="B20" s="37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="53"/>
-      <c r="F20" s="101">
-        <f>H20+F19</f>
-        <v>4584.34</v>
+      <c r="F20" s="151">
+        <f>F19</f>
+        <v>0</v>
       </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="101">
-        <f>J20+H19</f>
-        <v>4558.1400000000003</v>
-      </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="101">
-        <f>L20+J19</f>
-        <v>4507.33</v>
-      </c>
-      <c r="K20" s="113"/>
-      <c r="L20" s="101">
-        <f>N20+L19</f>
-        <v>4268.2299999999996</v>
-      </c>
-      <c r="M20" s="113"/>
-      <c r="N20" s="101">
-        <f>P20+N19</f>
-        <v>4009.35</v>
-      </c>
-      <c r="O20" s="113"/>
-      <c r="P20" s="101">
-        <f>R20+P19</f>
-        <v>3752.54</v>
-      </c>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="101">
-        <f>T20+R19</f>
-        <v>3631.7</v>
-      </c>
-      <c r="S20" s="113"/>
-      <c r="T20" s="101">
-        <f>V20+T19</f>
-        <v>3533.7</v>
-      </c>
-      <c r="U20" s="113"/>
-      <c r="V20" s="101">
-        <f>X20+V19</f>
-        <v>3381.4199999999996</v>
-      </c>
-      <c r="W20" s="113"/>
-      <c r="X20" s="101">
-        <f>Z20+X19</f>
-        <v>3033.0299999999997</v>
-      </c>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="101">
-        <f>AB20+Z19</f>
-        <v>2727.93</v>
-      </c>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="101">
-        <f>F38+AB19</f>
-        <v>2510.25</v>
-      </c>
-      <c r="AC20" s="113"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="152"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="152"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="152"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="152"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="152"/>
       <c r="AD20" s="53"/>
       <c r="AE20" s="63"/>
     </row>
     <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="55"/>
       <c r="B21" s="37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="53"/>
-      <c r="F21" s="109">
-        <f>SUM(F19)</f>
-        <v>26.2</v>
-      </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109">
-        <f>SUM(H19)</f>
-        <v>50.81</v>
-      </c>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109">
-        <f>SUM(J19)</f>
-        <v>239.1</v>
-      </c>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109">
-        <f>SUM(L19)</f>
-        <v>258.88</v>
-      </c>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109">
-        <f>SUM(N19)</f>
-        <v>256.81</v>
-      </c>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109">
-        <f>SUM(P19)</f>
-        <v>120.84</v>
-      </c>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109">
-        <f>SUM(R19)</f>
-        <v>98</v>
-      </c>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109">
-        <f>SUM(T19)</f>
-        <v>152.28</v>
-      </c>
-      <c r="U21" s="109"/>
-      <c r="V21" s="109">
-        <f>SUM(V19)</f>
-        <v>348.39</v>
-      </c>
-      <c r="W21" s="109"/>
-      <c r="X21" s="109">
-        <f>SUM(X19)</f>
-        <v>305.10000000000002</v>
-      </c>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109">
-        <f>SUM(Z19)</f>
-        <v>217.68</v>
-      </c>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109">
-        <f>SUM(AB19)</f>
-        <v>260.94</v>
-      </c>
-      <c r="AC21" s="109"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="159"/>
+      <c r="T21" s="159"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="159"/>
+      <c r="X21" s="159"/>
+      <c r="Y21" s="159"/>
+      <c r="Z21" s="159"/>
+      <c r="AA21" s="159"/>
+      <c r="AB21" s="159"/>
+      <c r="AC21" s="159"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="63"/>
     </row>
     <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="50"/>
-      <c r="D22" s="68">
+      <c r="D22" s="67">
         <v>0.03</v>
       </c>
       <c r="E22" s="53"/>
-      <c r="F22" s="107">
-        <f>F19*D22</f>
-        <v>0.78599999999999992</v>
-      </c>
-      <c r="G22" s="108"/>
-      <c r="H22" s="107">
-        <f>H19*D22</f>
-        <v>1.5243</v>
-      </c>
-      <c r="I22" s="108"/>
-      <c r="J22" s="107">
-        <f>J19*D22</f>
-        <v>7.1729999999999992</v>
-      </c>
-      <c r="K22" s="108"/>
-      <c r="L22" s="107">
-        <f>L19*D22</f>
-        <v>7.7664</v>
-      </c>
-      <c r="M22" s="108"/>
-      <c r="N22" s="107">
-        <f>N19*D22</f>
-        <v>7.7042999999999999</v>
-      </c>
-      <c r="O22" s="108"/>
-      <c r="P22" s="107">
-        <f>P19*D22</f>
-        <v>3.6252</v>
-      </c>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="107">
-        <f>R19*D22</f>
-        <v>2.94</v>
-      </c>
-      <c r="S22" s="108"/>
-      <c r="T22" s="107">
-        <f>T19*D22</f>
-        <v>4.5683999999999996</v>
-      </c>
-      <c r="U22" s="108"/>
-      <c r="V22" s="107">
-        <f>V19*D22</f>
-        <v>10.451699999999999</v>
-      </c>
-      <c r="W22" s="108"/>
-      <c r="X22" s="107">
-        <f>X19*D22</f>
-        <v>9.1530000000000005</v>
-      </c>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="107">
-        <f>Z19*D22</f>
-        <v>6.5304000000000002</v>
-      </c>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="107">
-        <f>AB19*D22</f>
-        <v>7.8281999999999998</v>
-      </c>
-      <c r="AC22" s="108"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="163"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="163"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="163"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="163"/>
+      <c r="AB22" s="162"/>
+      <c r="AC22" s="163"/>
       <c r="AD22" s="53"/>
       <c r="AE22" s="63"/>
     </row>
     <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="55"/>
       <c r="B23" s="49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
       <c r="E23" s="53"/>
-      <c r="F23" s="110">
-        <f>F19+F22</f>
-        <v>26.986000000000001</v>
-      </c>
-      <c r="G23" s="111"/>
-      <c r="H23" s="110">
-        <f>H19+H22</f>
-        <v>52.334299999999999</v>
-      </c>
-      <c r="I23" s="111"/>
-      <c r="J23" s="110">
-        <f>J19+J22</f>
-        <v>246.273</v>
-      </c>
-      <c r="K23" s="111"/>
-      <c r="L23" s="110">
-        <f>L19+L22</f>
-        <v>266.64639999999997</v>
-      </c>
-      <c r="M23" s="112"/>
-      <c r="N23" s="110">
-        <f>N19+N22</f>
-        <v>264.51429999999999</v>
-      </c>
-      <c r="O23" s="111"/>
-      <c r="P23" s="110">
-        <f>P21+P22</f>
-        <v>124.46520000000001</v>
-      </c>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="110">
-        <f>R19+R22</f>
-        <v>100.94</v>
-      </c>
-      <c r="S23" s="111"/>
-      <c r="T23" s="110">
-        <f>T19+T22</f>
-        <v>156.8484</v>
-      </c>
-      <c r="U23" s="111"/>
-      <c r="V23" s="110">
-        <f>V19+V22</f>
-        <v>358.8417</v>
-      </c>
-      <c r="W23" s="111"/>
-      <c r="X23" s="110">
-        <f>X19+X22</f>
-        <v>314.25300000000004</v>
-      </c>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="110">
-        <f>Z19+Z22</f>
-        <v>224.21039999999999</v>
-      </c>
-      <c r="AA23" s="112"/>
-      <c r="AB23" s="110">
-        <f>AB19+AB22</f>
-        <v>268.76819999999998</v>
-      </c>
-      <c r="AC23" s="111"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="161"/>
       <c r="AD23" s="53"/>
       <c r="AE23" s="63"/>
-      <c r="AG23" s="87">
-        <f>SUM(F23:Y23)</f>
-        <v>1912.1023</v>
-      </c>
-      <c r="AH23" s="88"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="150"/>
     </row>
     <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
       <c r="B24" s="49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
       <c r="E24" s="53"/>
-      <c r="F24" s="99">
-        <f>H24+F23</f>
-        <v>1514.9892999999997</v>
+      <c r="F24" s="151">
+        <f>F23</f>
+        <v>0</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101">
-        <f>J24+H23</f>
-        <v>1488.0032999999996</v>
-      </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="101">
-        <f>L24+J23</f>
-        <v>1435.6689999999996</v>
-      </c>
-      <c r="K24" s="113"/>
-      <c r="L24" s="101">
-        <f>N24+L23</f>
-        <v>1189.3959999999997</v>
-      </c>
-      <c r="M24" s="113"/>
-      <c r="N24" s="101">
-        <f>P24+N23</f>
-        <v>922.74959999999987</v>
-      </c>
-      <c r="O24" s="113"/>
-      <c r="P24" s="101">
-        <f>R24+P23</f>
-        <v>658.23529999999994</v>
-      </c>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="101">
-        <f>T24+R23</f>
-        <v>533.77009999999996</v>
-      </c>
-      <c r="S24" s="113"/>
-      <c r="T24" s="101">
-        <f>V23-82.86+T23</f>
-        <v>432.83010000000002</v>
-      </c>
-      <c r="U24" s="113"/>
-      <c r="V24" s="99">
-        <f>X24+V23-82.86</f>
-        <v>3400.0025999999993</v>
-      </c>
-      <c r="W24" s="100"/>
-      <c r="X24" s="101">
-        <f>Z24+X23</f>
-        <v>3124.0208999999995</v>
-      </c>
-      <c r="Y24" s="113"/>
-      <c r="Z24" s="101">
-        <f>AB24+Z23</f>
-        <v>2809.7678999999994</v>
-      </c>
-      <c r="AA24" s="113"/>
-      <c r="AB24" s="101">
-        <f>F42+AB23</f>
-        <v>2585.5574999999994</v>
-      </c>
-      <c r="AC24" s="113"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="152"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="152"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="151"/>
+      <c r="W24" s="152"/>
+      <c r="X24" s="151"/>
+      <c r="Y24" s="152"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="152"/>
+      <c r="AB24" s="151"/>
+      <c r="AC24" s="152"/>
       <c r="AD24" s="53"/>
       <c r="AE24" s="63"/>
     </row>
@@ -6777,105 +5976,67 @@
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="101">
-        <f t="shared" ref="F25" si="0">3600-F24</f>
-        <v>2085.0107000000003</v>
-      </c>
-      <c r="G25" s="113"/>
-      <c r="H25" s="101">
-        <f t="shared" ref="H25" si="1">3600-H24</f>
-        <v>2111.9967000000006</v>
-      </c>
-      <c r="I25" s="113"/>
-      <c r="J25" s="101">
-        <f t="shared" ref="J25" si="2">3600-J24</f>
-        <v>2164.3310000000001</v>
-      </c>
-      <c r="K25" s="113"/>
-      <c r="L25" s="101">
-        <f t="shared" ref="L25" si="3">3600-L24</f>
-        <v>2410.6040000000003</v>
-      </c>
-      <c r="M25" s="113"/>
-      <c r="N25" s="101">
-        <f t="shared" ref="N25" si="4">3600-N24</f>
-        <v>2677.2503999999999</v>
-      </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="101">
-        <f t="shared" ref="P25" si="5">3600-P24</f>
-        <v>2941.7647000000002</v>
-      </c>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="101">
-        <f t="shared" ref="R25" si="6">3600-R24</f>
-        <v>3066.2299000000003</v>
-      </c>
-      <c r="S25" s="113"/>
-      <c r="T25" s="101">
-        <f t="shared" ref="T25" si="7">3600-T24</f>
-        <v>3167.1698999999999</v>
-      </c>
-      <c r="U25" s="113"/>
-      <c r="V25" s="101">
-        <f t="shared" ref="V25" si="8">3600-V24</f>
-        <v>199.99740000000065</v>
-      </c>
-      <c r="W25" s="113"/>
-      <c r="X25" s="101">
-        <f t="shared" ref="X25" si="9">3600-X24</f>
-        <v>475.97910000000047</v>
-      </c>
-      <c r="Y25" s="113"/>
-      <c r="Z25" s="101">
-        <f t="shared" ref="Z25" si="10">3600-Z24</f>
-        <v>790.23210000000063</v>
-      </c>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="101">
-        <f>3600-AB24</f>
-        <v>1014.4425000000006</v>
-      </c>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="85"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="152"/>
+      <c r="R25" s="151"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="151"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="151"/>
+      <c r="Y25" s="152"/>
+      <c r="Z25" s="151"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="151"/>
+      <c r="AC25" s="152"/>
+      <c r="AD25" s="82"/>
       <c r="AE25" s="63"/>
     </row>
     <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="55"/>
       <c r="B26" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="78"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="44"/>
-      <c r="L26" s="67"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="44"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
-      <c r="P26" s="67"/>
+      <c r="P26" s="66"/>
       <c r="Q26" s="65"/>
       <c r="R26" s="47"/>
       <c r="S26" s="47"/>
       <c r="T26" s="65"/>
-      <c r="U26" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="136"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="169"/>
+      <c r="W26" s="169"/>
+      <c r="X26" s="170"/>
       <c r="Y26" s="65"/>
       <c r="Z26" s="44"/>
       <c r="AA26" s="65"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="125"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="172"/>
       <c r="AE26" s="63"/>
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6902,15 +6063,13 @@
       <c r="U27" s="28"/>
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
-      <c r="X27" s="98">
-        <v>3639.7109999999993</v>
-      </c>
-      <c r="Y27" s="96"/>
-      <c r="Z27" s="96"/>
-      <c r="AA27" s="96"/>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="96"/>
-      <c r="AD27" s="96"/>
+      <c r="X27" s="165"/>
+      <c r="Y27" s="166"/>
+      <c r="Z27" s="166"/>
+      <c r="AA27" s="166"/>
+      <c r="AB27" s="166"/>
+      <c r="AC27" s="166"/>
+      <c r="AD27" s="166"/>
       <c r="AE27" s="56"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -6941,8 +6100,8 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="8"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="66"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="8"/>
       <c r="AD28" s="13"/>
       <c r="AE28" s="56"/>
     </row>
@@ -6974,8 +6133,8 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="14"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="14"/>
       <c r="AD29" s="13"/>
       <c r="AE29" s="56"/>
     </row>
@@ -7007,18 +6166,16 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="14"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="48" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="14"/>
       <c r="AD30" s="48"/>
-      <c r="AE30" s="83"/>
+      <c r="AE30" s="80"/>
     </row>
     <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="24"/>
@@ -7042,8 +6199,8 @@
       <c r="Y31" s="25"/>
       <c r="Z31" s="23"/>
       <c r="AA31" s="25"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="25"/>
       <c r="AD31" s="62"/>
       <c r="AE31" s="56"/>
     </row>
@@ -7075,8 +6232,8 @@
       <c r="Y32" s="29"/>
       <c r="Z32" s="30"/>
       <c r="AA32" s="29"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="29"/>
       <c r="AD32" s="28"/>
       <c r="AE32" s="56"/>
     </row>
@@ -7108,612 +6265,336 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="32"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="32"/>
       <c r="AD33" s="28"/>
       <c r="AE33" s="56"/>
     </row>
     <row r="34" spans="1:35" ht="15.6" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55"/>
       <c r="B34" s="34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
-      <c r="E34" s="118">
-        <v>13</v>
-      </c>
-      <c r="F34" s="119"/>
-      <c r="G34" s="118">
-        <f>E34+1</f>
-        <v>14</v>
-      </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="118">
-        <f>G34+1</f>
-        <v>15</v>
-      </c>
-      <c r="J34" s="119"/>
-      <c r="K34" s="118">
-        <f>I34+1</f>
-        <v>16</v>
-      </c>
-      <c r="L34" s="119"/>
-      <c r="M34" s="118">
-        <f>K34+1</f>
-        <v>17</v>
-      </c>
-      <c r="N34" s="119"/>
-      <c r="O34" s="118">
-        <f>M34+1</f>
-        <v>18</v>
-      </c>
-      <c r="P34" s="119"/>
-      <c r="Q34" s="118">
-        <f>O34+1</f>
-        <v>19</v>
-      </c>
-      <c r="R34" s="119"/>
-      <c r="S34" s="118">
-        <f>Q34+1</f>
-        <v>20</v>
-      </c>
-      <c r="T34" s="119"/>
-      <c r="U34" s="118">
-        <f>S34+1</f>
-        <v>21</v>
-      </c>
-      <c r="V34" s="119"/>
-      <c r="W34" s="118">
-        <f>U34+1</f>
-        <v>22</v>
-      </c>
-      <c r="X34" s="119"/>
-      <c r="Y34" s="118">
-        <f>W34+1</f>
-        <v>23</v>
-      </c>
-      <c r="Z34" s="119"/>
-      <c r="AA34" s="118">
-        <f>Y34+1</f>
-        <v>24</v>
-      </c>
-      <c r="AB34" s="119"/>
-      <c r="AC34" s="130" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD34" s="131"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="142"/>
+      <c r="P34" s="148"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="148"/>
+      <c r="S34" s="142"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="142"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="148"/>
+      <c r="Y34" s="142"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="142"/>
+      <c r="AB34" s="148"/>
+      <c r="AC34" s="142"/>
+      <c r="AD34" s="148"/>
       <c r="AE34" s="56"/>
     </row>
     <row r="35" spans="1:35" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="55"/>
       <c r="B35" s="23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="116">
-        <v>11</v>
-      </c>
-      <c r="F35" s="117"/>
-      <c r="G35" s="116">
-        <v>12</v>
-      </c>
-      <c r="H35" s="117"/>
-      <c r="I35" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="117"/>
-      <c r="K35" s="116">
-        <v>37</v>
-      </c>
-      <c r="L35" s="117"/>
-      <c r="M35" s="116">
-        <v>36</v>
-      </c>
-      <c r="N35" s="117"/>
-      <c r="O35" s="116">
-        <v>35</v>
-      </c>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="116">
-        <v>34</v>
-      </c>
-      <c r="R35" s="117"/>
-      <c r="S35" s="116">
-        <v>33</v>
-      </c>
-      <c r="T35" s="117"/>
-      <c r="U35" s="116">
-        <v>32</v>
-      </c>
-      <c r="V35" s="117"/>
-      <c r="W35" s="116">
-        <v>31</v>
-      </c>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="116">
-        <v>30</v>
-      </c>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="116">
-        <v>29</v>
-      </c>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="132"/>
-      <c r="AD35" s="133"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="147"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="147"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="147"/>
+      <c r="S35" s="146"/>
+      <c r="T35" s="147"/>
+      <c r="U35" s="146"/>
+      <c r="V35" s="147"/>
+      <c r="W35" s="146"/>
+      <c r="X35" s="147"/>
+      <c r="Y35" s="146"/>
+      <c r="Z35" s="147"/>
+      <c r="AA35" s="146"/>
+      <c r="AB35" s="147"/>
+      <c r="AC35" s="146"/>
+      <c r="AD35" s="147"/>
       <c r="AE35" s="56"/>
     </row>
     <row r="36" spans="1:35" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="55"/>
       <c r="B36" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="115"/>
-      <c r="G36" s="114" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="115"/>
-      <c r="I36" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="115"/>
-      <c r="K36" s="114" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="115"/>
-      <c r="M36" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="115"/>
-      <c r="O36" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" s="115"/>
-      <c r="Q36" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="R36" s="115"/>
-      <c r="S36" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="T36" s="115"/>
-      <c r="U36" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="V36" s="115"/>
-      <c r="W36" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="X36" s="115"/>
-      <c r="Y36" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z36" s="115"/>
-      <c r="AA36" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB36" s="115"/>
-      <c r="AC36" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD36" s="145"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="100"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="100"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="100"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="99"/>
+      <c r="AD36" s="100"/>
       <c r="AE36" s="56"/>
     </row>
     <row r="37" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="55"/>
       <c r="B37" s="35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="101">
-        <v>89.46</v>
-      </c>
-      <c r="G37" s="113"/>
-      <c r="H37" s="101">
-        <v>39.090000000000003</v>
-      </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="103">
-        <v>26.47</v>
-      </c>
-      <c r="K37" s="104"/>
-      <c r="L37" s="101">
-        <v>110.37</v>
-      </c>
-      <c r="M37" s="113"/>
-      <c r="N37" s="101">
-        <v>109.97</v>
-      </c>
-      <c r="O37" s="113"/>
-      <c r="P37" s="101">
-        <v>284.27999999999997</v>
-      </c>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="105">
-        <v>340.55</v>
-      </c>
-      <c r="S37" s="106"/>
-      <c r="T37" s="101">
-        <v>334.03</v>
-      </c>
-      <c r="U37" s="113"/>
-      <c r="V37" s="101">
-        <v>375.47</v>
-      </c>
-      <c r="W37" s="113"/>
-      <c r="X37" s="101">
-        <v>308.58</v>
-      </c>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="101">
-        <v>231.04</v>
-      </c>
-      <c r="AA37" s="113"/>
-      <c r="AB37" s="54"/>
-      <c r="AC37" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD37" s="143"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="154"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="152"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="152"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="152"/>
+      <c r="V37" s="155"/>
+      <c r="W37" s="156"/>
+      <c r="X37" s="157"/>
+      <c r="Y37" s="158"/>
+      <c r="Z37" s="157"/>
+      <c r="AA37" s="158"/>
+      <c r="AB37" s="157"/>
+      <c r="AC37" s="158"/>
+      <c r="AD37" s="54"/>
       <c r="AE37" s="56"/>
-      <c r="AG37" s="87">
-        <f>SUM(F37:I37)</f>
-        <v>128.55000000000001</v>
-      </c>
-      <c r="AH37" s="88"/>
+      <c r="AG37" s="149"/>
+      <c r="AH37" s="150"/>
     </row>
     <row r="38" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
       <c r="B38" s="37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
       <c r="E38" s="53"/>
-      <c r="F38" s="101">
-        <f>H38+F37</f>
-        <v>2249.31</v>
+      <c r="F38" s="151">
+        <f>F37+AB20</f>
+        <v>0</v>
       </c>
-      <c r="G38" s="113"/>
-      <c r="H38" s="101">
-        <f>J38+H37</f>
-        <v>2159.85</v>
-      </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="101">
-        <f>L38+J37</f>
-        <v>2120.7599999999998</v>
-      </c>
-      <c r="K38" s="113"/>
-      <c r="L38" s="101">
-        <f>N38+L37</f>
-        <v>2094.29</v>
-      </c>
-      <c r="M38" s="113"/>
-      <c r="N38" s="101">
-        <f>P38+N37</f>
-        <v>1983.9199999999998</v>
-      </c>
-      <c r="O38" s="113"/>
-      <c r="P38" s="101">
-        <f>R38+P37</f>
-        <v>1873.9499999999998</v>
-      </c>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="101">
-        <f>T38+R37</f>
-        <v>1589.6699999999998</v>
-      </c>
-      <c r="S38" s="113"/>
-      <c r="T38" s="101">
-        <f>V38+T37</f>
-        <v>1249.1199999999999</v>
-      </c>
-      <c r="U38" s="113"/>
-      <c r="V38" s="101">
-        <f>X38+V37</f>
-        <v>915.09</v>
-      </c>
-      <c r="W38" s="113"/>
-      <c r="X38" s="101">
-        <f>Z38+X37</f>
-        <v>539.62</v>
-      </c>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="101">
-        <f>Y37+Z37</f>
-        <v>231.04</v>
-      </c>
-      <c r="AA38" s="113"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="101"/>
-      <c r="AD38" s="113"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="152"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="152"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="152"/>
+      <c r="V38" s="151"/>
+      <c r="W38" s="152"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="152"/>
+      <c r="Z38" s="151"/>
+      <c r="AA38" s="152"/>
+      <c r="AB38" s="151"/>
+      <c r="AC38" s="152"/>
+      <c r="AD38" s="53"/>
       <c r="AE38" s="56"/>
-      <c r="AG38" s="87">
-        <f>SUM(AG19:AG37)</f>
-        <v>4375.6822999999995</v>
-      </c>
-      <c r="AH38" s="87"/>
+      <c r="AG38" s="149"/>
+      <c r="AH38" s="149"/>
     </row>
     <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
       <c r="B39" s="37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
       <c r="E39" s="53"/>
-      <c r="F39" s="109">
-        <f>SUM(F37)</f>
-        <v>89.46</v>
-      </c>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109">
-        <f>SUM(H37)</f>
-        <v>39.090000000000003</v>
-      </c>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109">
-        <f>SUM(J37)</f>
-        <v>26.47</v>
-      </c>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109">
-        <f>SUM(L37)</f>
-        <v>110.37</v>
-      </c>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109">
-        <f>SUM(N37)</f>
-        <v>109.97</v>
-      </c>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109">
-        <f>SUM(P37)</f>
-        <v>284.27999999999997</v>
-      </c>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109">
-        <f>SUM(R37)</f>
-        <v>340.55</v>
-      </c>
-      <c r="S39" s="109"/>
-      <c r="T39" s="109">
-        <f>SUM(T37)</f>
-        <v>334.03</v>
-      </c>
-      <c r="U39" s="109"/>
-      <c r="V39" s="109">
-        <f>SUM(V37)</f>
-        <v>375.47</v>
-      </c>
-      <c r="W39" s="109"/>
-      <c r="X39" s="109">
-        <f>SUM(X37)</f>
-        <v>308.58</v>
-      </c>
-      <c r="Y39" s="109"/>
-      <c r="Z39" s="109">
-        <f>SUM(Z37)</f>
-        <v>231.04</v>
-      </c>
-      <c r="AA39" s="109"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="101"/>
-      <c r="AD39" s="113"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="159"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="159"/>
+      <c r="P39" s="159"/>
+      <c r="Q39" s="159"/>
+      <c r="R39" s="159"/>
+      <c r="S39" s="159"/>
+      <c r="T39" s="159"/>
+      <c r="U39" s="159"/>
+      <c r="V39" s="159"/>
+      <c r="W39" s="159"/>
+      <c r="X39" s="159"/>
+      <c r="Y39" s="159"/>
+      <c r="Z39" s="159"/>
+      <c r="AA39" s="159"/>
+      <c r="AB39" s="159"/>
+      <c r="AC39" s="159"/>
+      <c r="AD39" s="53"/>
       <c r="AE39" s="56"/>
     </row>
     <row r="40" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="55"/>
       <c r="B40" s="49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C40" s="50"/>
-      <c r="D40" s="68">
+      <c r="D40" s="67">
         <v>0.03</v>
       </c>
       <c r="E40" s="53"/>
-      <c r="F40" s="107">
-        <f>F37*D40</f>
-        <v>2.6837999999999997</v>
-      </c>
-      <c r="G40" s="108"/>
-      <c r="H40" s="107">
-        <f>H37*D40</f>
-        <v>1.1727000000000001</v>
-      </c>
-      <c r="I40" s="108"/>
-      <c r="J40" s="107">
-        <f>J37*D40</f>
-        <v>0.79409999999999992</v>
-      </c>
-      <c r="K40" s="108"/>
-      <c r="L40" s="107">
-        <f>L37*D40</f>
-        <v>3.3111000000000002</v>
-      </c>
-      <c r="M40" s="108"/>
-      <c r="N40" s="107">
-        <f>N37*D40</f>
-        <v>3.2990999999999997</v>
-      </c>
-      <c r="O40" s="108"/>
-      <c r="P40" s="107">
-        <f>P37*D40</f>
-        <v>8.5283999999999995</v>
-      </c>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="107">
-        <f>R37*D40</f>
-        <v>10.2165</v>
-      </c>
-      <c r="S40" s="108"/>
-      <c r="T40" s="107">
-        <f>T37*D40</f>
-        <v>10.020899999999999</v>
-      </c>
-      <c r="U40" s="108"/>
-      <c r="V40" s="107">
-        <f>V37*D40</f>
-        <v>11.264100000000001</v>
-      </c>
-      <c r="W40" s="108"/>
-      <c r="X40" s="107">
-        <f>X37*D40</f>
-        <v>9.2573999999999987</v>
-      </c>
-      <c r="Y40" s="108"/>
-      <c r="Z40" s="107">
-        <f>Z37*D40</f>
-        <v>6.9311999999999996</v>
-      </c>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="101"/>
-      <c r="AD40" s="113"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="163"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="163"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="163"/>
+      <c r="P40" s="162"/>
+      <c r="Q40" s="163"/>
+      <c r="R40" s="162"/>
+      <c r="S40" s="163"/>
+      <c r="T40" s="162"/>
+      <c r="U40" s="163"/>
+      <c r="V40" s="162"/>
+      <c r="W40" s="163"/>
+      <c r="X40" s="162"/>
+      <c r="Y40" s="163"/>
+      <c r="Z40" s="162"/>
+      <c r="AA40" s="163"/>
+      <c r="AB40" s="162"/>
+      <c r="AC40" s="163"/>
+      <c r="AD40" s="53"/>
       <c r="AE40" s="56"/>
     </row>
     <row r="41" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="55"/>
       <c r="B41" s="49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
       <c r="E41" s="53"/>
-      <c r="F41" s="110">
-        <f>F37+F40</f>
-        <v>92.143799999999999</v>
-      </c>
-      <c r="G41" s="111"/>
-      <c r="H41" s="110">
-        <f>H37+H40</f>
-        <v>40.262700000000002</v>
-      </c>
-      <c r="I41" s="111"/>
-      <c r="J41" s="110">
-        <f>J37+J40</f>
-        <v>27.264099999999999</v>
-      </c>
-      <c r="K41" s="111"/>
-      <c r="L41" s="110">
-        <f>L37+L40</f>
-        <v>113.6811</v>
-      </c>
-      <c r="M41" s="111"/>
-      <c r="N41" s="110">
-        <f>N37+N40</f>
-        <v>113.26909999999999</v>
-      </c>
-      <c r="O41" s="111"/>
-      <c r="P41" s="110">
-        <f>P39+P40</f>
-        <v>292.80839999999995</v>
-      </c>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="110">
-        <f>R37+R40</f>
-        <v>350.76650000000001</v>
-      </c>
-      <c r="S41" s="111"/>
-      <c r="T41" s="110">
-        <f>T37+T40</f>
-        <v>344.05089999999996</v>
-      </c>
-      <c r="U41" s="112"/>
-      <c r="V41" s="110">
-        <f>V37+V40</f>
-        <v>386.73410000000001</v>
-      </c>
-      <c r="W41" s="111"/>
-      <c r="X41" s="110">
-        <f>X37+X40</f>
-        <v>317.8374</v>
-      </c>
-      <c r="Y41" s="111"/>
-      <c r="Z41" s="110">
-        <f>Z37+Z40</f>
-        <v>237.97119999999998</v>
-      </c>
-      <c r="AA41" s="111"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="101"/>
-      <c r="AD41" s="113"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="160"/>
+      <c r="M41" s="164"/>
+      <c r="N41" s="160"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="160"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="160"/>
+      <c r="S41" s="161"/>
+      <c r="T41" s="160"/>
+      <c r="U41" s="161"/>
+      <c r="V41" s="160"/>
+      <c r="W41" s="161"/>
+      <c r="X41" s="160"/>
+      <c r="Y41" s="161"/>
+      <c r="Z41" s="160"/>
+      <c r="AA41" s="164"/>
+      <c r="AB41" s="160"/>
+      <c r="AC41" s="161"/>
+      <c r="AD41" s="53"/>
       <c r="AE41" s="56"/>
     </row>
     <row r="42" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="55"/>
       <c r="B42" s="49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
       <c r="E42" s="53"/>
-      <c r="F42" s="105">
-        <f>H42+F41</f>
-        <v>2316.7892999999995</v>
+      <c r="F42" s="151">
+        <f>F41+AB24</f>
+        <v>0</v>
       </c>
-      <c r="G42" s="106"/>
-      <c r="H42" s="105">
-        <f>J42+H41</f>
-        <v>2224.6454999999996</v>
-      </c>
-      <c r="I42" s="106"/>
-      <c r="J42" s="105">
-        <f>L42+J41</f>
-        <v>2184.3827999999994</v>
-      </c>
-      <c r="K42" s="106"/>
-      <c r="L42" s="105">
-        <f>N42+L41</f>
-        <v>2157.1186999999995</v>
-      </c>
-      <c r="M42" s="106"/>
-      <c r="N42" s="105">
-        <f>P42+N41</f>
-        <v>2043.4375999999997</v>
-      </c>
-      <c r="O42" s="106"/>
-      <c r="P42" s="105">
-        <f>R42+P41</f>
-        <v>1930.1684999999998</v>
-      </c>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="105">
-        <f>T42+R41</f>
-        <v>1637.3600999999999</v>
-      </c>
-      <c r="S42" s="106"/>
-      <c r="T42" s="105">
-        <f>V42+T41</f>
-        <v>1286.5935999999999</v>
-      </c>
-      <c r="U42" s="106"/>
-      <c r="V42" s="105">
-        <f>X42+V41</f>
-        <v>942.54269999999997</v>
-      </c>
-      <c r="W42" s="106"/>
-      <c r="X42" s="105">
-        <f>Z42+X41</f>
-        <v>555.80859999999996</v>
-      </c>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="101">
-        <f>Z41</f>
-        <v>237.97119999999998</v>
-      </c>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="101"/>
-      <c r="AD42" s="113"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="152"/>
+      <c r="P42" s="151"/>
+      <c r="Q42" s="152"/>
+      <c r="R42" s="151"/>
+      <c r="S42" s="152"/>
+      <c r="T42" s="151"/>
+      <c r="U42" s="152"/>
+      <c r="V42" s="151"/>
+      <c r="W42" s="152"/>
+      <c r="X42" s="151"/>
+      <c r="Y42" s="152"/>
+      <c r="Z42" s="151"/>
+      <c r="AA42" s="152"/>
+      <c r="AB42" s="151"/>
+      <c r="AC42" s="152"/>
+      <c r="AD42" s="53"/>
       <c r="AE42" s="56"/>
     </row>
     <row r="43" spans="1:35" ht="15" x14ac:dyDescent="0.25">
@@ -7721,109 +6602,70 @@
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="101">
-        <f t="shared" ref="F43" si="11">3600-F42</f>
-        <v>1283.2107000000005</v>
-      </c>
-      <c r="G43" s="113"/>
-      <c r="H43" s="101">
-        <f t="shared" ref="H43" si="12">3600-H42</f>
-        <v>1375.3545000000004</v>
-      </c>
-      <c r="I43" s="113"/>
-      <c r="J43" s="101">
-        <f t="shared" ref="J43" si="13">3600-J42</f>
-        <v>1415.6172000000006</v>
-      </c>
-      <c r="K43" s="113"/>
-      <c r="L43" s="101">
-        <f t="shared" ref="L43" si="14">3600-L42</f>
-        <v>1442.8813000000005</v>
-      </c>
-      <c r="M43" s="113"/>
-      <c r="N43" s="101">
-        <f t="shared" ref="N43" si="15">3600-N42</f>
-        <v>1556.5624000000003</v>
-      </c>
-      <c r="O43" s="113"/>
-      <c r="P43" s="101">
-        <f t="shared" ref="P43" si="16">3600-P42</f>
-        <v>1669.8315000000002</v>
-      </c>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="101">
-        <f t="shared" ref="R43" si="17">3600-R42</f>
-        <v>1962.6399000000001</v>
-      </c>
-      <c r="S43" s="113"/>
-      <c r="T43" s="101">
-        <f t="shared" ref="T43" si="18">3600-T42</f>
-        <v>2313.4063999999998</v>
-      </c>
-      <c r="U43" s="113"/>
-      <c r="V43" s="101">
-        <f t="shared" ref="V43" si="19">3600-V42</f>
-        <v>2657.4573</v>
-      </c>
-      <c r="W43" s="113"/>
-      <c r="X43" s="101">
-        <f t="shared" ref="X43" si="20">3600-X42</f>
-        <v>3044.1914000000002</v>
-      </c>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="101">
-        <f>AC43-Z42</f>
-        <v>3362.0288</v>
-      </c>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="86"/>
-      <c r="AC43" s="102">
-        <v>3600</v>
-      </c>
-      <c r="AD43" s="113"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="152"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="152"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="152"/>
+      <c r="T43" s="151"/>
+      <c r="U43" s="152"/>
+      <c r="V43" s="151"/>
+      <c r="W43" s="152"/>
+      <c r="X43" s="151"/>
+      <c r="Y43" s="152"/>
+      <c r="Z43" s="151"/>
+      <c r="AA43" s="152"/>
+      <c r="AB43" s="151"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="82"/>
       <c r="AE43" s="56"/>
     </row>
     <row r="44" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="78"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="76"/>
       <c r="G44" s="46"/>
       <c r="H44" s="46"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="69"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="139" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y44" s="140"/>
-      <c r="Z44" s="137" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA44" s="124"/>
-      <c r="AB44" s="124"/>
-      <c r="AC44" s="124"/>
-      <c r="AD44" s="138"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="168"/>
+      <c r="V44" s="169"/>
+      <c r="W44" s="169"/>
+      <c r="X44" s="170"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="171"/>
+      <c r="AD44" s="172"/>
       <c r="AE44" s="56"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="88"/>
+      <c r="AG44" s="150"/>
+      <c r="AH44" s="150"/>
     </row>
     <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
@@ -7838,17 +6680,17 @@
       <c r="J45" s="41"/>
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
       <c r="Q45" s="28"/>
       <c r="R45" s="28"/>
       <c r="S45" s="28"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="98"/>
-      <c r="W45" s="98"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="165"/>
+      <c r="W45" s="165"/>
       <c r="X45" s="42"/>
       <c r="Y45" s="42"/>
       <c r="Z45" s="42"/>
@@ -7878,29 +6720,29 @@
       <c r="Q46" s="28"/>
       <c r="R46" s="28"/>
       <c r="S46" s="28"/>
-      <c r="T46" s="70"/>
+      <c r="T46" s="69"/>
       <c r="U46" s="28"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="96"/>
-      <c r="Y46" s="96"/>
-      <c r="Z46" s="96"/>
-      <c r="AA46" s="96"/>
-      <c r="AB46" s="96"/>
-      <c r="AC46" s="96"/>
-      <c r="AD46" s="96"/>
+      <c r="V46" s="165"/>
+      <c r="W46" s="165"/>
+      <c r="X46" s="166"/>
+      <c r="Y46" s="166"/>
+      <c r="Z46" s="166"/>
+      <c r="AA46" s="166"/>
+      <c r="AB46" s="166"/>
+      <c r="AC46" s="166"/>
+      <c r="AD46" s="166"/>
       <c r="AE46" s="56"/>
-      <c r="AG46" s="80"/>
-      <c r="AH46" s="80"/>
+      <c r="AG46" s="78"/>
+      <c r="AH46" s="78"/>
     </row>
     <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="166"/>
       <c r="H47" s="41"/>
       <c r="I47" s="3"/>
       <c r="J47" s="41"/>
@@ -7917,38 +6759,34 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="41"/>
-      <c r="X47" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y47" s="96"/>
-      <c r="Z47" s="96"/>
-      <c r="AA47" s="96"/>
-      <c r="AB47" s="96"/>
-      <c r="AC47" s="96"/>
-      <c r="AD47" s="96"/>
+      <c r="X47" s="166"/>
+      <c r="Y47" s="166"/>
+      <c r="Z47" s="166"/>
+      <c r="AA47" s="166"/>
+      <c r="AB47" s="166"/>
+      <c r="AC47" s="166"/>
+      <c r="AD47" s="166"/>
       <c r="AE47" s="56"/>
-      <c r="AG47" s="89">
-        <v>3448.59</v>
-      </c>
-      <c r="AH47" s="89"/>
-      <c r="AI47" s="80"/>
+      <c r="AG47" s="174"/>
+      <c r="AH47" s="174"/>
+      <c r="AI47" s="78"/>
     </row>
     <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="166"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="166"/>
       <c r="H48" s="41"/>
       <c r="I48" s="3"/>
       <c r="J48" s="41"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="61"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="97"/>
+      <c r="N48" s="181"/>
+      <c r="O48" s="181"/>
       <c r="P48" s="61"/>
       <c r="Q48" s="61"/>
       <c r="R48" s="61"/>
@@ -7957,36 +6795,34 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="41"/>
-      <c r="X48" s="96"/>
-      <c r="Y48" s="96"/>
-      <c r="Z48" s="96"/>
-      <c r="AA48" s="96"/>
-      <c r="AB48" s="96"/>
-      <c r="AC48" s="96"/>
-      <c r="AD48" s="96"/>
+      <c r="X48" s="166"/>
+      <c r="Y48" s="166"/>
+      <c r="Z48" s="166"/>
+      <c r="AA48" s="166"/>
+      <c r="AB48" s="166"/>
+      <c r="AC48" s="166"/>
+      <c r="AD48" s="166"/>
       <c r="AE48" s="56"/>
-      <c r="AG48" s="89">
-        <v>3457.11</v>
-      </c>
-      <c r="AH48" s="89"/>
-      <c r="AI48" s="80"/>
+      <c r="AG48" s="174"/>
+      <c r="AH48" s="174"/>
+      <c r="AI48" s="78"/>
     </row>
     <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="55"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
+      <c r="B49" s="166"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="166"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="166"/>
       <c r="H49" s="41"/>
       <c r="I49" s="3"/>
       <c r="J49" s="41"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="61"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="90"/>
+      <c r="N49" s="173"/>
+      <c r="O49" s="173"/>
       <c r="P49" s="61"/>
       <c r="Q49" s="61"/>
       <c r="R49" s="61"/>
@@ -8003,11 +6839,9 @@
       <c r="AC49" s="61"/>
       <c r="AD49" s="61"/>
       <c r="AE49" s="56"/>
-      <c r="AG49" s="89">
-        <v>2120.7600000000002</v>
-      </c>
-      <c r="AH49" s="89"/>
-      <c r="AI49" s="80"/>
+      <c r="AG49" s="174"/>
+      <c r="AH49" s="174"/>
+      <c r="AI49" s="78"/>
     </row>
     <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="55"/>
@@ -8041,12 +6875,9 @@
       <c r="AC50" s="61"/>
       <c r="AD50" s="61"/>
       <c r="AE50" s="56"/>
-      <c r="AG50" s="89">
-        <f>SUM(AG47:AH49)</f>
-        <v>9026.4600000000009</v>
-      </c>
-      <c r="AH50" s="89"/>
-      <c r="AI50" s="80"/>
+      <c r="AG50" s="174"/>
+      <c r="AH50" s="174"/>
+      <c r="AI50" s="78"/>
     </row>
     <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55"/>
@@ -8080,12 +6911,9 @@
       <c r="AC51" s="61"/>
       <c r="AD51" s="61"/>
       <c r="AE51" s="56"/>
-      <c r="AG51" s="89">
-        <f>AG50*3.5%</f>
-        <v>315.92610000000008</v>
-      </c>
-      <c r="AH51" s="89"/>
-      <c r="AI51" s="80"/>
+      <c r="AG51" s="174"/>
+      <c r="AH51" s="174"/>
+      <c r="AI51" s="78"/>
     </row>
     <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55"/>
@@ -8119,12 +6947,9 @@
       <c r="AC52" s="61"/>
       <c r="AD52" s="61"/>
       <c r="AE52" s="56"/>
-      <c r="AG52" s="89">
-        <f>AG50+AG51</f>
-        <v>9342.3861000000015</v>
-      </c>
-      <c r="AH52" s="89"/>
-      <c r="AI52" s="80"/>
+      <c r="AG52" s="174"/>
+      <c r="AH52" s="174"/>
+      <c r="AI52" s="78"/>
     </row>
     <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55"/>
@@ -8158,21 +6983,18 @@
       <c r="AC53" s="61"/>
       <c r="AD53" s="61"/>
       <c r="AE53" s="56"/>
-      <c r="AG53" s="89">
-        <f>AG52*12</f>
-        <v>112108.63320000001</v>
-      </c>
-      <c r="AH53" s="89"/>
-      <c r="AI53" s="80"/>
+      <c r="AG53" s="174"/>
+      <c r="AH53" s="174"/>
+      <c r="AI53" s="78"/>
     </row>
     <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
+      <c r="B54" s="173"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="173"/>
       <c r="H54" s="41"/>
       <c r="I54" s="3"/>
       <c r="J54" s="41"/>
@@ -8189,77 +7011,286 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="41"/>
-      <c r="X54" s="96" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y54" s="96"/>
-      <c r="Z54" s="96"/>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="96"/>
-      <c r="AC54" s="96"/>
-      <c r="AD54" s="96"/>
-      <c r="AE54" s="141"/>
-      <c r="AG54" s="88"/>
-      <c r="AH54" s="88"/>
+      <c r="X54" s="166"/>
+      <c r="Y54" s="166"/>
+      <c r="Z54" s="166"/>
+      <c r="AA54" s="166"/>
+      <c r="AB54" s="166"/>
+      <c r="AC54" s="166"/>
+      <c r="AD54" s="166"/>
+      <c r="AE54" s="180"/>
+      <c r="AG54" s="150"/>
+      <c r="AH54" s="150"/>
     </row>
     <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
+      <c r="B55" s="175"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="176"/>
       <c r="H55" s="64"/>
       <c r="I55" s="59"/>
-      <c r="J55" s="93"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="92"/>
-      <c r="N55" s="92"/>
-      <c r="O55" s="92"/>
-      <c r="P55" s="92"/>
-      <c r="Q55" s="92"/>
-      <c r="R55" s="92"/>
-      <c r="S55" s="77"/>
+      <c r="J55" s="177"/>
+      <c r="K55" s="178"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="176"/>
+      <c r="N55" s="176"/>
+      <c r="O55" s="176"/>
+      <c r="P55" s="176"/>
+      <c r="Q55" s="176"/>
+      <c r="R55" s="176"/>
+      <c r="S55" s="75"/>
       <c r="T55" s="59"/>
       <c r="U55" s="59"/>
       <c r="V55" s="59"/>
       <c r="W55" s="59"/>
-      <c r="X55" s="95"/>
-      <c r="Y55" s="95"/>
-      <c r="Z55" s="95"/>
-      <c r="AA55" s="95"/>
-      <c r="AB55" s="95"/>
-      <c r="AC55" s="95"/>
-      <c r="AD55" s="95"/>
+      <c r="X55" s="179"/>
+      <c r="Y55" s="179"/>
+      <c r="Z55" s="179"/>
+      <c r="AA55" s="179"/>
+      <c r="AB55" s="179"/>
+      <c r="AC55" s="179"/>
+      <c r="AD55" s="179"/>
       <c r="AE55" s="60"/>
-      <c r="AG55" s="88"/>
-      <c r="AH55" s="88"/>
+      <c r="AG55" s="150"/>
+      <c r="AH55" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="E4:T4"/>
-    <mergeCell ref="E6:T8"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="A8:D8"/>
+  <mergeCells count="279">
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:R55"/>
+    <mergeCell ref="X55:AD55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:AD46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="X47:AD47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="X54:AE54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AC16:AD16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
@@ -8284,496 +7315,32 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="W17:X17"/>
     <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="AC36:AD36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:R55"/>
-    <mergeCell ref="X55:AD55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:AD46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="X47:AD47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="X54:AE54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AC41:AD41"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="AC34:AD35"/>
-    <mergeCell ref="Z44:AD44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="AC38:AD38"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="AC40:AD40"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AC42:AD42"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="AC43:AD43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="E6:T8"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Z8:AA8"/>
   </mergeCells>
   <pageMargins left="0.31496062992126" right="0" top="0.5" bottom="0" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="67" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G10:AB17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="10" spans="7:28" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G10" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="146"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="146"/>
-    </row>
-    <row r="11" spans="7:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" s="153" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="153"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="153"/>
-      <c r="AB11" s="153"/>
-    </row>
-    <row r="12" spans="7:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G12" s="154"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="157" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="159"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-    </row>
-    <row r="13" spans="7:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G13" s="154"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="157" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
-      <c r="U13" s="161" t="s">
-        <v>43</v>
-      </c>
-      <c r="V13" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="153"/>
-      <c r="AB13" s="153"/>
-    </row>
-    <row r="14" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="154"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="161" t="s">
-        <v>45</v>
-      </c>
-      <c r="V14" s="164" t="s">
-        <v>46</v>
-      </c>
-      <c r="W14" s="164" t="s">
-        <v>46</v>
-      </c>
-      <c r="X14" s="165"/>
-      <c r="Y14" s="165"/>
-    </row>
-    <row r="15" spans="7:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="G15" s="154"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="181" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="182"/>
-      <c r="Q15" s="182"/>
-      <c r="R15" s="182"/>
-      <c r="S15" s="182"/>
-      <c r="T15" s="182"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="167"/>
-      <c r="W15" s="167"/>
-      <c r="X15" s="165"/>
-      <c r="Y15" s="165"/>
-    </row>
-    <row r="16" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G16" s="168"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="182"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="182"/>
-      <c r="S16" s="182"/>
-      <c r="T16" s="182"/>
-      <c r="U16" s="171" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" s="171"/>
-      <c r="Z16" s="172" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="174" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="7:28" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="176"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="182"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="171"/>
-      <c r="V17" s="171"/>
-      <c r="Z17" s="178"/>
-      <c r="AA17" s="179"/>
-      <c r="AB17" s="180"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="G10:T10"/>
-    <mergeCell ref="G11:H15"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="K15:T17"/>
-    <mergeCell ref="G17:J17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/templates/output/template4.xlsx
+++ b/templates/output/template4.xlsx
@@ -1052,12 +1052,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1061,162 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,157 +1286,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5098,7 +5098,7 @@
   <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:G43"/>
+      <selection activeCell="E36" sqref="E36:AD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5114,67 +5114,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
       <c r="AE1" s="86"/>
     </row>
     <row r="2" spans="1:31" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="135"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="94"/>
       <c r="D2" s="95"/>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="126" t="s">
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="126"/>
+      <c r="V2" s="176"/>
       <c r="W2" s="87" t="s">
         <v>11</v>
       </c>
@@ -5188,29 +5188,29 @@
       <c r="AE2" s="86"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="137"/>
-      <c r="B3" s="138"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="154"/>
       <c r="C3" s="93"/>
       <c r="D3" s="96"/>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="101"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="99"/>
       <c r="W3" s="88"/>
       <c r="X3" s="88"/>
       <c r="Y3" s="88"/>
@@ -5222,32 +5222,32 @@
       <c r="AE3" s="86"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="138"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="93"/>
       <c r="D4" s="96"/>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="126" t="s">
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="126"/>
+      <c r="V4" s="176"/>
       <c r="W4" s="87" t="s">
         <v>14</v>
       </c>
@@ -5261,30 +5261,30 @@
       <c r="AE4" s="86"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="93"/>
       <c r="D5" s="96"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="126" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="126"/>
+      <c r="V5" s="176"/>
       <c r="W5" s="83" t="s">
         <v>16</v>
       </c>
@@ -5300,28 +5300,28 @@
       <c r="AE5" s="86"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="93"/>
       <c r="D6" s="96"/>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="119"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="169"/>
       <c r="U6" s="85"/>
       <c r="V6" s="85"/>
       <c r="W6" s="85"/>
@@ -5339,68 +5339,68 @@
       <c r="B7" s="93"/>
       <c r="C7" s="93"/>
       <c r="D7" s="98"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="109" t="s">
+      <c r="E7" s="170"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="171"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="110"/>
+      <c r="V7" s="160"/>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7" s="111" t="s">
+      <c r="Z7" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="112"/>
+      <c r="AA7" s="162"/>
       <c r="AB7" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="128"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="178"/>
       <c r="AE7" s="86"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="124"/>
-      <c r="P8" s="124"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="110"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="160"/>
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="130"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="180"/>
       <c r="AB8" s="90"/>
       <c r="AC8" s="91"/>
       <c r="AD8" s="92"/>
@@ -5411,8 +5411,8 @@
       <c r="B9" s="2"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="43"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -5540,9 +5540,9 @@
     </row>
     <row r="13" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
@@ -5552,18 +5552,18 @@
       <c r="K13" s="27"/>
       <c r="L13" s="23"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="134"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="134"/>
-      <c r="V13" s="133"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="134"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="150"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="25"/>
       <c r="AB13" s="23"/>
@@ -5644,34 +5644,34 @@
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
-      <c r="E16" s="142">
+      <c r="E16" s="117">
         <v>1</v>
       </c>
-      <c r="F16" s="148"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="143"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="117"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="117"/>
+      <c r="AD16" s="146"/>
       <c r="AE16" s="63"/>
     </row>
     <row r="17" spans="1:34" ht="15.6" x14ac:dyDescent="0.25">
@@ -5685,30 +5685,30 @@
         <v>24</v>
       </c>
       <c r="F17" s="145"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="146"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="146"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="146"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="146"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="146"/>
-      <c r="AD17" s="147"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="109"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="110"/>
       <c r="AE17" s="63"/>
       <c r="AG17" s="79"/>
     </row>
@@ -5719,34 +5719,34 @@
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="100"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="100"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="181"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="181"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="181"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="181"/>
       <c r="AE18" s="63"/>
     </row>
     <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5757,34 +5757,34 @@
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
       <c r="E19" s="54"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="152"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="156"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="157"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="157"/>
-      <c r="AC19" s="158"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="128"/>
       <c r="AD19" s="54"/>
       <c r="AE19" s="63"/>
-      <c r="AG19" s="149"/>
-      <c r="AH19" s="150"/>
+      <c r="AG19" s="140"/>
+      <c r="AH19" s="137"/>
     </row>
     <row r="20" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
@@ -5794,33 +5794,33 @@
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="53"/>
-      <c r="F20" s="151">
+      <c r="F20" s="107">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="152"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="152"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="152"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="152"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="152"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="152"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="108"/>
       <c r="AD20" s="53"/>
       <c r="AE20" s="63"/>
     </row>
@@ -5832,30 +5832,30 @@
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="53"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="159"/>
-      <c r="X21" s="159"/>
-      <c r="Y21" s="159"/>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="159"/>
-      <c r="AB21" s="159"/>
-      <c r="AC21" s="159"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+      <c r="AA21" s="111"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="111"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="63"/>
     </row>
@@ -5869,30 +5869,30 @@
         <v>0.03</v>
       </c>
       <c r="E22" s="53"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="163"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="162"/>
-      <c r="W22" s="163"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="163"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="163"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="163"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="123"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="123"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="122"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="122"/>
+      <c r="AC22" s="123"/>
       <c r="AD22" s="53"/>
       <c r="AE22" s="63"/>
     </row>
@@ -5904,34 +5904,34 @@
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
       <c r="E23" s="53"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="164"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="161"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="161"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="161"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="161"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="161"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="113"/>
       <c r="AD23" s="53"/>
       <c r="AE23" s="63"/>
-      <c r="AG23" s="149"/>
-      <c r="AH23" s="150"/>
+      <c r="AG23" s="140"/>
+      <c r="AH23" s="137"/>
     </row>
     <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="55"/>
@@ -5941,33 +5941,33 @@
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
       <c r="E24" s="53"/>
-      <c r="F24" s="151">
+      <c r="F24" s="107">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="G24" s="152"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="152"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="152"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="152"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="152"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="152"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="108"/>
       <c r="AD24" s="53"/>
       <c r="AE24" s="63"/>
     </row>
@@ -5977,30 +5977,30 @@
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
       <c r="E25" s="81"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="152"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="152"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="152"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="152"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="152"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="107"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="108"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="108"/>
       <c r="AD25" s="82"/>
       <c r="AE25" s="63"/>
     </row>
@@ -6027,16 +6027,16 @@
       <c r="R26" s="47"/>
       <c r="S26" s="47"/>
       <c r="T26" s="65"/>
-      <c r="U26" s="168"/>
-      <c r="V26" s="169"/>
-      <c r="W26" s="169"/>
-      <c r="X26" s="170"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="121"/>
       <c r="Y26" s="65"/>
       <c r="Z26" s="44"/>
       <c r="AA26" s="65"/>
       <c r="AB26" s="73"/>
-      <c r="AC26" s="171"/>
-      <c r="AD26" s="172"/>
+      <c r="AC26" s="115"/>
+      <c r="AD26" s="116"/>
       <c r="AE26" s="63"/>
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6063,13 +6063,13 @@
       <c r="U27" s="28"/>
       <c r="V27" s="28"/>
       <c r="W27" s="28"/>
-      <c r="X27" s="165"/>
-      <c r="Y27" s="166"/>
-      <c r="Z27" s="166"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="166"/>
-      <c r="AC27" s="166"/>
-      <c r="AD27" s="166"/>
+      <c r="X27" s="114"/>
+      <c r="Y27" s="129"/>
+      <c r="Z27" s="129"/>
+      <c r="AA27" s="129"/>
+      <c r="AB27" s="129"/>
+      <c r="AC27" s="129"/>
+      <c r="AD27" s="129"/>
       <c r="AE27" s="56"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -6173,9 +6173,9 @@
     </row>
     <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="55"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="24"/>
@@ -6277,32 +6277,32 @@
       </c>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="142"/>
-      <c r="P34" s="148"/>
-      <c r="Q34" s="142"/>
-      <c r="R34" s="148"/>
-      <c r="S34" s="142"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="142"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="142"/>
-      <c r="X34" s="148"/>
-      <c r="Y34" s="142"/>
-      <c r="Z34" s="148"/>
-      <c r="AA34" s="142"/>
-      <c r="AB34" s="148"/>
-      <c r="AC34" s="142"/>
-      <c r="AD34" s="148"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="117"/>
+      <c r="X34" s="118"/>
+      <c r="Y34" s="117"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="117"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="117"/>
+      <c r="AD34" s="118"/>
       <c r="AE34" s="56"/>
     </row>
     <row r="35" spans="1:35" ht="15.6" x14ac:dyDescent="0.25">
@@ -6314,30 +6314,30 @@
       <c r="D35" s="24"/>
       <c r="E35" s="144"/>
       <c r="F35" s="145"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="146"/>
-      <c r="P35" s="147"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="146"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="146"/>
-      <c r="X35" s="147"/>
-      <c r="Y35" s="146"/>
-      <c r="Z35" s="147"/>
-      <c r="AA35" s="146"/>
-      <c r="AB35" s="147"/>
-      <c r="AC35" s="146"/>
-      <c r="AD35" s="147"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="110"/>
       <c r="AE35" s="56"/>
     </row>
     <row r="36" spans="1:35" ht="15.6" x14ac:dyDescent="0.25">
@@ -6347,32 +6347,32 @@
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="100"/>
-      <c r="W36" s="99"/>
-      <c r="X36" s="100"/>
-      <c r="Y36" s="99"/>
-      <c r="Z36" s="100"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="100"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="100"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="181"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="181"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="181"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="181"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="181"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="181"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="181"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="181"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="181"/>
       <c r="AE36" s="56"/>
     </row>
     <row r="37" spans="1:35" ht="15" x14ac:dyDescent="0.25">
@@ -6383,34 +6383,34 @@
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="152"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="152"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="152"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="152"/>
-      <c r="V37" s="155"/>
-      <c r="W37" s="156"/>
-      <c r="X37" s="157"/>
-      <c r="Y37" s="158"/>
-      <c r="Z37" s="157"/>
-      <c r="AA37" s="158"/>
-      <c r="AB37" s="157"/>
-      <c r="AC37" s="158"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="142"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="125"/>
+      <c r="W37" s="126"/>
+      <c r="X37" s="127"/>
+      <c r="Y37" s="128"/>
+      <c r="Z37" s="127"/>
+      <c r="AA37" s="128"/>
+      <c r="AB37" s="127"/>
+      <c r="AC37" s="128"/>
       <c r="AD37" s="54"/>
       <c r="AE37" s="56"/>
-      <c r="AG37" s="149"/>
-      <c r="AH37" s="150"/>
+      <c r="AG37" s="140"/>
+      <c r="AH37" s="137"/>
     </row>
     <row r="38" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
@@ -6420,37 +6420,37 @@
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
       <c r="E38" s="53"/>
-      <c r="F38" s="151">
+      <c r="F38" s="107">
         <f>F37+AB20</f>
         <v>0</v>
       </c>
-      <c r="G38" s="152"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="152"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="152"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="152"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="152"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="152"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="152"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="152"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="152"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="152"/>
-      <c r="AB38" s="151"/>
-      <c r="AC38" s="152"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="107"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="107"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="107"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="107"/>
+      <c r="AC38" s="108"/>
       <c r="AD38" s="53"/>
       <c r="AE38" s="56"/>
-      <c r="AG38" s="149"/>
-      <c r="AH38" s="149"/>
+      <c r="AG38" s="140"/>
+      <c r="AH38" s="140"/>
     </row>
     <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="55"/>
@@ -6460,30 +6460,30 @@
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
       <c r="E39" s="53"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="159"/>
-      <c r="K39" s="159"/>
-      <c r="L39" s="159"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="159"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="159"/>
-      <c r="R39" s="159"/>
-      <c r="S39" s="159"/>
-      <c r="T39" s="159"/>
-      <c r="U39" s="159"/>
-      <c r="V39" s="159"/>
-      <c r="W39" s="159"/>
-      <c r="X39" s="159"/>
-      <c r="Y39" s="159"/>
-      <c r="Z39" s="159"/>
-      <c r="AA39" s="159"/>
-      <c r="AB39" s="159"/>
-      <c r="AC39" s="159"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111"/>
+      <c r="AC39" s="111"/>
       <c r="AD39" s="53"/>
       <c r="AE39" s="56"/>
     </row>
@@ -6497,30 +6497,30 @@
         <v>0.03</v>
       </c>
       <c r="E40" s="53"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="162"/>
-      <c r="K40" s="163"/>
-      <c r="L40" s="162"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="163"/>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="163"/>
-      <c r="R40" s="162"/>
-      <c r="S40" s="163"/>
-      <c r="T40" s="162"/>
-      <c r="U40" s="163"/>
-      <c r="V40" s="162"/>
-      <c r="W40" s="163"/>
-      <c r="X40" s="162"/>
-      <c r="Y40" s="163"/>
-      <c r="Z40" s="162"/>
-      <c r="AA40" s="163"/>
-      <c r="AB40" s="162"/>
-      <c r="AC40" s="163"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="122"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="122"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="122"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="122"/>
+      <c r="U40" s="123"/>
+      <c r="V40" s="122"/>
+      <c r="W40" s="123"/>
+      <c r="X40" s="122"/>
+      <c r="Y40" s="123"/>
+      <c r="Z40" s="122"/>
+      <c r="AA40" s="123"/>
+      <c r="AB40" s="122"/>
+      <c r="AC40" s="123"/>
       <c r="AD40" s="53"/>
       <c r="AE40" s="56"/>
     </row>
@@ -6532,30 +6532,30 @@
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
       <c r="E41" s="53"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="160"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="160"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="160"/>
-      <c r="O41" s="161"/>
-      <c r="P41" s="160"/>
-      <c r="Q41" s="161"/>
-      <c r="R41" s="160"/>
-      <c r="S41" s="161"/>
-      <c r="T41" s="160"/>
-      <c r="U41" s="161"/>
-      <c r="V41" s="160"/>
-      <c r="W41" s="161"/>
-      <c r="X41" s="160"/>
-      <c r="Y41" s="161"/>
-      <c r="Z41" s="160"/>
-      <c r="AA41" s="164"/>
-      <c r="AB41" s="160"/>
-      <c r="AC41" s="161"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="113"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="112"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="112"/>
+      <c r="Y41" s="113"/>
+      <c r="Z41" s="112"/>
+      <c r="AA41" s="124"/>
+      <c r="AB41" s="112"/>
+      <c r="AC41" s="113"/>
       <c r="AD41" s="53"/>
       <c r="AE41" s="56"/>
     </row>
@@ -6567,33 +6567,33 @@
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
       <c r="E42" s="53"/>
-      <c r="F42" s="151">
+      <c r="F42" s="107">
         <f>F41+AB24</f>
         <v>0</v>
       </c>
-      <c r="G42" s="152"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="152"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="152"/>
-      <c r="P42" s="151"/>
-      <c r="Q42" s="152"/>
-      <c r="R42" s="151"/>
-      <c r="S42" s="152"/>
-      <c r="T42" s="151"/>
-      <c r="U42" s="152"/>
-      <c r="V42" s="151"/>
-      <c r="W42" s="152"/>
-      <c r="X42" s="151"/>
-      <c r="Y42" s="152"/>
-      <c r="Z42" s="151"/>
-      <c r="AA42" s="152"/>
-      <c r="AB42" s="151"/>
-      <c r="AC42" s="152"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="108"/>
+      <c r="V42" s="107"/>
+      <c r="W42" s="108"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="108"/>
       <c r="AD42" s="53"/>
       <c r="AE42" s="56"/>
     </row>
@@ -6603,30 +6603,30 @@
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
       <c r="E43" s="81"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="152"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="152"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="152"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="152"/>
-      <c r="T43" s="151"/>
-      <c r="U43" s="152"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="151"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="151"/>
-      <c r="AA43" s="152"/>
-      <c r="AB43" s="151"/>
-      <c r="AC43" s="152"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="107"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="107"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="107"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="107"/>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="108"/>
       <c r="AD43" s="82"/>
       <c r="AE43" s="56"/>
     </row>
@@ -6653,19 +6653,19 @@
       <c r="R44" s="47"/>
       <c r="S44" s="47"/>
       <c r="T44" s="65"/>
-      <c r="U44" s="168"/>
-      <c r="V44" s="169"/>
-      <c r="W44" s="169"/>
-      <c r="X44" s="170"/>
+      <c r="U44" s="119"/>
+      <c r="V44" s="120"/>
+      <c r="W44" s="120"/>
+      <c r="X44" s="121"/>
       <c r="Y44" s="65"/>
       <c r="Z44" s="44"/>
       <c r="AA44" s="65"/>
       <c r="AB44" s="73"/>
-      <c r="AC44" s="171"/>
-      <c r="AD44" s="172"/>
+      <c r="AC44" s="115"/>
+      <c r="AD44" s="116"/>
       <c r="AE44" s="56"/>
-      <c r="AG44" s="150"/>
-      <c r="AH44" s="150"/>
+      <c r="AG44" s="137"/>
+      <c r="AH44" s="137"/>
     </row>
     <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
@@ -6689,8 +6689,8 @@
       <c r="S45" s="28"/>
       <c r="T45" s="70"/>
       <c r="U45" s="71"/>
-      <c r="V45" s="165"/>
-      <c r="W45" s="165"/>
+      <c r="V45" s="114"/>
+      <c r="W45" s="114"/>
       <c r="X45" s="42"/>
       <c r="Y45" s="42"/>
       <c r="Z45" s="42"/>
@@ -6722,27 +6722,27 @@
       <c r="S46" s="28"/>
       <c r="T46" s="69"/>
       <c r="U46" s="28"/>
-      <c r="V46" s="165"/>
-      <c r="W46" s="165"/>
-      <c r="X46" s="166"/>
-      <c r="Y46" s="166"/>
-      <c r="Z46" s="166"/>
-      <c r="AA46" s="166"/>
-      <c r="AB46" s="166"/>
-      <c r="AC46" s="166"/>
-      <c r="AD46" s="166"/>
+      <c r="V46" s="114"/>
+      <c r="W46" s="114"/>
+      <c r="X46" s="129"/>
+      <c r="Y46" s="129"/>
+      <c r="Z46" s="129"/>
+      <c r="AA46" s="129"/>
+      <c r="AB46" s="129"/>
+      <c r="AC46" s="129"/>
+      <c r="AD46" s="129"/>
       <c r="AE46" s="56"/>
       <c r="AG46" s="78"/>
       <c r="AH46" s="78"/>
     </row>
     <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55"/>
-      <c r="B47" s="166"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
       <c r="H47" s="41"/>
       <c r="I47" s="3"/>
       <c r="J47" s="41"/>
@@ -6759,34 +6759,34 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="41"/>
-      <c r="X47" s="166"/>
-      <c r="Y47" s="166"/>
-      <c r="Z47" s="166"/>
-      <c r="AA47" s="166"/>
-      <c r="AB47" s="166"/>
-      <c r="AC47" s="166"/>
-      <c r="AD47" s="166"/>
+      <c r="X47" s="129"/>
+      <c r="Y47" s="129"/>
+      <c r="Z47" s="129"/>
+      <c r="AA47" s="129"/>
+      <c r="AB47" s="129"/>
+      <c r="AC47" s="129"/>
+      <c r="AD47" s="129"/>
       <c r="AE47" s="56"/>
-      <c r="AG47" s="174"/>
-      <c r="AH47" s="174"/>
+      <c r="AG47" s="131"/>
+      <c r="AH47" s="131"/>
       <c r="AI47" s="78"/>
     </row>
     <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55"/>
-      <c r="B48" s="166"/>
-      <c r="C48" s="166"/>
-      <c r="D48" s="166"/>
-      <c r="E48" s="166"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="166"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
       <c r="H48" s="41"/>
       <c r="I48" s="3"/>
       <c r="J48" s="41"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="61"/>
-      <c r="N48" s="181"/>
-      <c r="O48" s="181"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="139"/>
       <c r="P48" s="61"/>
       <c r="Q48" s="61"/>
       <c r="R48" s="61"/>
@@ -6795,34 +6795,34 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="41"/>
-      <c r="X48" s="166"/>
-      <c r="Y48" s="166"/>
-      <c r="Z48" s="166"/>
-      <c r="AA48" s="166"/>
-      <c r="AB48" s="166"/>
-      <c r="AC48" s="166"/>
-      <c r="AD48" s="166"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="129"/>
+      <c r="AB48" s="129"/>
+      <c r="AC48" s="129"/>
+      <c r="AD48" s="129"/>
       <c r="AE48" s="56"/>
-      <c r="AG48" s="174"/>
-      <c r="AH48" s="174"/>
+      <c r="AG48" s="131"/>
+      <c r="AH48" s="131"/>
       <c r="AI48" s="78"/>
     </row>
     <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="55"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
       <c r="H49" s="41"/>
       <c r="I49" s="3"/>
       <c r="J49" s="41"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="61"/>
-      <c r="N49" s="173"/>
-      <c r="O49" s="173"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
       <c r="P49" s="61"/>
       <c r="Q49" s="61"/>
       <c r="R49" s="61"/>
@@ -6839,8 +6839,8 @@
       <c r="AC49" s="61"/>
       <c r="AD49" s="61"/>
       <c r="AE49" s="56"/>
-      <c r="AG49" s="174"/>
-      <c r="AH49" s="174"/>
+      <c r="AG49" s="131"/>
+      <c r="AH49" s="131"/>
       <c r="AI49" s="78"/>
     </row>
     <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6875,8 +6875,8 @@
       <c r="AC50" s="61"/>
       <c r="AD50" s="61"/>
       <c r="AE50" s="56"/>
-      <c r="AG50" s="174"/>
-      <c r="AH50" s="174"/>
+      <c r="AG50" s="131"/>
+      <c r="AH50" s="131"/>
       <c r="AI50" s="78"/>
     </row>
     <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6911,8 +6911,8 @@
       <c r="AC51" s="61"/>
       <c r="AD51" s="61"/>
       <c r="AE51" s="56"/>
-      <c r="AG51" s="174"/>
-      <c r="AH51" s="174"/>
+      <c r="AG51" s="131"/>
+      <c r="AH51" s="131"/>
       <c r="AI51" s="78"/>
     </row>
     <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6947,8 +6947,8 @@
       <c r="AC52" s="61"/>
       <c r="AD52" s="61"/>
       <c r="AE52" s="56"/>
-      <c r="AG52" s="174"/>
-      <c r="AH52" s="174"/>
+      <c r="AG52" s="131"/>
+      <c r="AH52" s="131"/>
       <c r="AI52" s="78"/>
     </row>
     <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6983,18 +6983,18 @@
       <c r="AC53" s="61"/>
       <c r="AD53" s="61"/>
       <c r="AE53" s="56"/>
-      <c r="AG53" s="174"/>
-      <c r="AH53" s="174"/>
+      <c r="AG53" s="131"/>
+      <c r="AH53" s="131"/>
       <c r="AI53" s="78"/>
     </row>
     <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55"/>
-      <c r="B54" s="173"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
       <c r="H54" s="41"/>
       <c r="I54" s="3"/>
       <c r="J54" s="41"/>
@@ -7011,54 +7011,309 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="41"/>
-      <c r="X54" s="166"/>
-      <c r="Y54" s="166"/>
-      <c r="Z54" s="166"/>
-      <c r="AA54" s="166"/>
-      <c r="AB54" s="166"/>
-      <c r="AC54" s="166"/>
-      <c r="AD54" s="166"/>
-      <c r="AE54" s="180"/>
-      <c r="AG54" s="150"/>
-      <c r="AH54" s="150"/>
+      <c r="X54" s="129"/>
+      <c r="Y54" s="129"/>
+      <c r="Z54" s="129"/>
+      <c r="AA54" s="129"/>
+      <c r="AB54" s="129"/>
+      <c r="AC54" s="129"/>
+      <c r="AD54" s="129"/>
+      <c r="AE54" s="138"/>
+      <c r="AG54" s="137"/>
+      <c r="AH54" s="137"/>
     </row>
     <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
-      <c r="B55" s="175"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="176"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="133"/>
       <c r="H55" s="64"/>
       <c r="I55" s="59"/>
-      <c r="J55" s="177"/>
-      <c r="K55" s="178"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="135"/>
       <c r="L55" s="74"/>
-      <c r="M55" s="176"/>
-      <c r="N55" s="176"/>
-      <c r="O55" s="176"/>
-      <c r="P55" s="176"/>
-      <c r="Q55" s="176"/>
-      <c r="R55" s="176"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="133"/>
+      <c r="O55" s="133"/>
+      <c r="P55" s="133"/>
+      <c r="Q55" s="133"/>
+      <c r="R55" s="133"/>
       <c r="S55" s="75"/>
       <c r="T55" s="59"/>
       <c r="U55" s="59"/>
       <c r="V55" s="59"/>
       <c r="W55" s="59"/>
-      <c r="X55" s="179"/>
-      <c r="Y55" s="179"/>
-      <c r="Z55" s="179"/>
-      <c r="AA55" s="179"/>
-      <c r="AB55" s="179"/>
-      <c r="AC55" s="179"/>
-      <c r="AD55" s="179"/>
+      <c r="X55" s="136"/>
+      <c r="Y55" s="136"/>
+      <c r="Z55" s="136"/>
+      <c r="AA55" s="136"/>
+      <c r="AB55" s="136"/>
+      <c r="AC55" s="136"/>
+      <c r="AD55" s="136"/>
       <c r="AE55" s="60"/>
-      <c r="AG55" s="150"/>
-      <c r="AH55" s="150"/>
+      <c r="AG55" s="137"/>
+      <c r="AH55" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="279">
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E3:T3"/>
+    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="E6:T8"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="X27:AD27"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="AC44:AD44"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:R55"/>
+    <mergeCell ref="X55:AD55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:AD46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="X47:AD47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="X54:AE54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC35:AD35"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AA35:AB35"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="J25:K25"/>
@@ -7083,261 +7338,6 @@
     <mergeCell ref="Q35:R35"/>
     <mergeCell ref="R41:S41"/>
     <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC35:AD35"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AA35:AB35"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:R55"/>
-    <mergeCell ref="X55:AD55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:AD46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="X47:AD47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="X54:AE54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="AC44:AD44"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="X27:AD27"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="E4:T4"/>
-    <mergeCell ref="E6:T8"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="Z8:AA8"/>
   </mergeCells>
   <pageMargins left="0.31496062992126" right="0" top="0.5" bottom="0" header="0.39370078740157499" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="67" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
